--- a/bots/crawl_ch/output/bread_coop_2023-02-12.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O331"/>
+  <dimension ref="A1:O330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2174,28 +2174,28 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3041085</t>
+          <t>5836746</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnussrollen 3 Stück</t>
+          <t>Betty Bossi Butterpastetli</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-haselnussrollen-3-stueck/p/3041085</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-butterpastetli/p/5836746</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E26" t="n">
         <v>4.5</v>
@@ -2207,12 +2207,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.72/100g</t>
+          <t>2.07/100g</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2232,56 +2232,56 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnussrollen 3 Stück 3.10 Schweizer Franken</t>
+          <t>Betty Bossi Butterpastetli 2.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5836746</t>
+          <t>3725524</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterpastetli</t>
+          <t>Leisi Blätterteig rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-butterpastetli/p/5836746</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rund-ausgewallt-32cm/p/3725524</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
         <v>4.5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2.07/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2301,56 +2301,60 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterpastetli 2.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>Leisi Blätterteig rund ausgewallt Ø32cm 20% ab 2 Aktion 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3725524</t>
+          <t>3041085</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig rund ausgewallt Ø32cm</t>
+          <t>Naturaplan Bio Haselnussrollen 3 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rund-ausgewallt-32cm/p/3725524</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-haselnussrollen-3-stueck/p/3041085</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E28" t="n">
         <v>4.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>1.72/100g</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2360,7 +2364,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2370,22 +2374,18 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig rund ausgewallt Ø32cm 20% ab 2 Aktion 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Haselnussrollen 3 Stück 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4953,45 +4953,45 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5873269</t>
+          <t>6737607</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Cranberry &amp;amp; Apfel</t>
+          <t>Naturaplan Bio Semmeli</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-break-cranberry-apfel/p/5873269</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-semmeli/p/6737607</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E65" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2.35/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5011,56 +5011,60 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Cranberry &amp;amp; Apfel 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+          <t>Naturaplan Bio Semmeli 0.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6737607</t>
+          <t>5873269</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Semmeli</t>
+          <t>Dar-Vida Break Cranberry &amp;amp; Apfel</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-semmeli/p/6737607</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-break-cranberry-apfel/p/5873269</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E66" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>2.35/100g</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5070,7 +5074,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5080,22 +5084,18 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Semmeli 0.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Break Cranberry &amp;amp; Apfel 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6089,45 +6089,45 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3726467</t>
+          <t>6550814</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen 10St</t>
+          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-10st/p/3726467</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-break-choco-cacaonibs/p/6550814</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>2.35/100g</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6147,56 +6147,56 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen 10St 3.50 Schweizer Franken</t>
+          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6550814</t>
+          <t>3726467</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs</t>
+          <t>Pasquier Milchbrötchen 10St</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-break-choco-cacaonibs/p/6550814</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-10st/p/3726467</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2.35/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6216,18 +6216,18 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Choco &amp;amp; Cacaonibs 3.10 Schweizer Franken</t>
+          <t>Pasquier Milchbrötchen 10St 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6438,45 +6438,45 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4842206</t>
+          <t>5689599</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Dar-Vida Honig extra fin</t>
+          <t>Wasa Knäckebrot Vollkorn</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-honig-extra-fin/p/4842206</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-vollkorn/p/5689599</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E86" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6496,56 +6496,56 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Dar-Vida Honig extra fin 3.95 Schweizer Franken</t>
+          <t>Wasa Knäckebrot Vollkorn 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5689599</t>
+          <t>4283951</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Vollkorn</t>
+          <t>Naturaplan Bio Mehrkornbrötli</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-vollkorn/p/5689599</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6565,42 +6565,46 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Vollkorn 2.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
+          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4283951</t>
+          <t>6668458</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli</t>
+          <t>Betty Bossi Kuchenteig ausgewallt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E88" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -6609,12 +6613,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>0.61/100g</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6624,7 +6628,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6634,60 +6638,60 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6668458</t>
+          <t>4842206</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt</t>
+          <t>Dar-Vida Honig extra fin</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-honig-extra-fin/p/4842206</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E89" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.61/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6697,7 +6701,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6707,22 +6711,18 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Honig extra fin 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7854,45 +7854,45 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3664904</t>
+          <t>5892883</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber Mini</t>
+          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-mini/p/3664904</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-street-market-corn-tortillas-glutenfrei-10-stueck/p/5892883</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2.04/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7912,60 +7912,60 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber Mini 4.65 Schweizer Franken</t>
+          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>5892883</t>
+          <t>4886668</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück</t>
+          <t>Dar-Vida Cracker Nature</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-street-market-corn-tortillas-glutenfrei-10-stueck/p/5892883</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-nature/p/4886668</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E107" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7985,60 +7985,60 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück 4.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Nature 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>4886668</t>
+          <t>3664904</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature</t>
+          <t>Appenzeller Bärli-Biber Mini</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-nature/p/4886668</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-mini/p/3664904</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>2.04/100g</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8058,22 +8058,22 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature 3.60 Schweizer Franken</t>
+          <t>Appenzeller Bärli-Biber Mini 4.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8564,7 +8564,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8990,7 +8990,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9554,7 +9554,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9846,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9915,7 +9915,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10126,45 +10126,45 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>4950628</t>
+          <t>3410121</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E138" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10184,60 +10184,60 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 5.20 Schweizer Franken</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3410121</t>
+          <t>4950628</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10257,22 +10257,22 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10418,7 +10418,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10487,7 +10487,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10836,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11055,7 +11055,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11692,7 +11692,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11761,7 +11761,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11830,7 +11830,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11899,7 +11899,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12260,7 +12260,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12467,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12536,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12958,45 +12958,45 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>6767586</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Milka Choco Brownie</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E178" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13016,56 +13016,56 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6767586</t>
+          <t>6364156</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie</t>
+          <t>Pasquier Pains facon Bretzel</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13085,56 +13085,56 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
+          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6364156</t>
+          <t>6750015</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel</t>
+          <t>Schär Pain Brioché</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13154,56 +13154,60 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr"/>
+          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6750015</t>
+          <t>6668455</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché</t>
+          <t>Betty Bossi Kuchenteig -35% Fett</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13213,7 +13217,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13223,60 +13227,60 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>6668455</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E182" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13286,7 +13290,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13296,22 +13300,18 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13666,45 +13666,45 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>3041946</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>Roland Knäckebrot Exquis Sesam</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E188" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13714,7 +13714,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -13724,56 +13724,60 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N188" t="inlineStr"/>
+          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>3041946</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13783,7 +13787,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13793,22 +13797,18 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13877,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14092,7 +14092,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14234,7 +14234,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14303,7 +14303,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14372,7 +14372,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14514,7 +14514,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14587,45 +14587,45 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>6345667</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Indian Delight Plain Naan Bread</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E201" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14635,7 +14635,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14645,60 +14645,60 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
+          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6345667</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E202" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14718,22 +14718,22 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14802,7 +14802,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14875,7 +14875,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14944,7 +14944,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15011,45 +15011,45 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>3040399</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E207" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15059,7 +15059,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15069,60 +15069,56 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 20% ab 2 Aktion 4.35 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>3040399</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="E208" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15132,7 +15128,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15142,18 +15138,22 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N208" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 20% ab 2 Aktion 4.35 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15648,45 +15648,45 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E216" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15696,7 +15696,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15706,56 +15706,60 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N216" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E217" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15765,7 +15769,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15775,22 +15779,18 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15859,7 +15859,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16001,7 +16001,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16074,7 +16074,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16143,7 +16143,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16210,7 +16210,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16283,7 +16283,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16352,7 +16352,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16425,7 +16425,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16494,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16563,7 +16563,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16636,7 +16636,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16705,45 +16705,45 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>5853824</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Schär Choco Muffins glutenfrei 4 Stück</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-choco-muffins-glutenfrei-4-stueck/p/5853824</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E231" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>2.04/100g</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16753,7 +16753,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16763,60 +16763,60 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+          <t>Schär Choco Muffins glutenfrei 4 Stück 5.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>5853824</t>
+          <t>6738706</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Schär Choco Muffins glutenfrei 4 Stück</t>
+          <t>Dar-Vida extra fin Mais Taco</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-choco-muffins-glutenfrei-4-stueck/p/5853824</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E232" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2.04/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -16826,7 +16826,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16836,60 +16836,56 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>Schär Choco Muffins glutenfrei 4 Stück 5.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Dar-Vida extra fin Mais Taco 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6738706</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E233" t="n">
         <v>4.5</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16899,7 +16895,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16909,18 +16905,22 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N233" t="inlineStr"/>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16987,7 +16987,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17060,7 +17060,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17202,7 +17202,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17344,7 +17344,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17413,45 +17413,45 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E241" t="n">
         <v>4.5</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17461,7 +17461,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17476,51 +17476,51 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E242" t="n">
         <v>4.5</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17545,13 +17545,13 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17620,7 +17620,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17687,7 +17687,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17825,7 +17825,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17894,7 +17894,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17963,7 +17963,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18036,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18105,7 +18105,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18172,7 +18172,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18241,7 +18241,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18310,45 +18310,45 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E254" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>1.82/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18368,22 +18368,18 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18452,45 +18448,45 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E256" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.82/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18500,7 +18496,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18510,18 +18506,22 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N256" t="inlineStr"/>
+          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18590,7 +18590,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18730,45 +18730,45 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E260" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18778,7 +18778,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18788,56 +18788,60 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N260" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E261" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -18847,7 +18851,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18857,22 +18861,18 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19014,7 +19014,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19087,7 +19087,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19156,7 +19156,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19225,7 +19225,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19298,7 +19298,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19369,7 +19369,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19438,7 +19438,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19507,7 +19507,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19576,7 +19576,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19718,7 +19718,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19791,7 +19791,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19860,7 +19860,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19929,45 +19929,45 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E277" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -19977,7 +19977,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19987,18 +19987,18 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20065,45 +20065,45 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E279" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20113,7 +20113,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20123,18 +20123,18 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20201,7 +20201,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20274,7 +20274,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20343,7 +20343,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20410,7 +20410,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20479,45 +20479,45 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D285" t="n">
         <v>6</v>
       </c>
       <c r="E285" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20527,7 +20527,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20542,51 +20542,55 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N285" t="inlineStr"/>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D286" t="n">
         <v>6</v>
       </c>
       <c r="E286" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20596,7 +20600,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20611,17 +20615,13 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20690,7 +20690,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20757,7 +20757,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20826,7 +20826,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20895,7 +20895,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20964,7 +20964,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21037,7 +21037,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21106,7 +21106,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21317,7 +21317,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21388,43 +21388,45 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>14</v>
+      </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2.12/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21434,7 +21436,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21449,17 +21451,13 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 17% Aktion 3.95 Schweizer Franken statt 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21532,45 +21530,45 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E300" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21580,7 +21578,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21590,56 +21588,56 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E301" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21649,7 +21647,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21659,56 +21657,56 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E302" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21718,7 +21716,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21728,56 +21726,56 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E303" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21787,7 +21785,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21797,56 +21795,56 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 20% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E304" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21856,7 +21854,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21866,56 +21864,56 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6828661</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Birnenweggli</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E305" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -21925,7 +21923,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21935,42 +21933,42 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Birnenweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>6828661</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Birnenweggli</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E306" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -21979,12 +21977,12 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -21994,7 +21992,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22004,56 +22002,56 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Birnenweggli 4.95 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E307" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22063,7 +22061,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22073,56 +22071,60 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N307" t="inlineStr"/>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>5825322</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Naturaplan Bio Aprikosenrollen 3x60g</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-aprikosenrollen-3x60g/p/5825322</t>
         </is>
       </c>
       <c r="D308" t="n">
         <v>5</v>
       </c>
       <c r="E308" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22132,7 +22134,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22142,60 +22144,56 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N308" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Aprikosenrollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>5825322</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Aprikosenrollen 3x60g</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-aprikosenrollen-3x60g/p/5825322</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D309" t="n">
+        <v>1</v>
+      </c>
+      <c r="E309" t="n">
         <v>5</v>
       </c>
-      <c r="E309" t="n">
-        <v>4</v>
-      </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22205,7 +22203,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22220,51 +22218,55 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Aprikosenrollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N309" t="inlineStr"/>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E310" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22274,7 +22276,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22289,55 +22291,55 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E311" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22347,7 +22349,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22357,60 +22359,56 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E312" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22420,7 +22418,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22430,56 +22428,60 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N312" t="inlineStr"/>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E313" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22489,7 +22491,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22499,60 +22501,56 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N313" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E314" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22562,7 +22560,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22572,56 +22570,56 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E315" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -22631,7 +22629,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22641,56 +22639,60 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N315" t="inlineStr"/>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -22700,7 +22702,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22710,60 +22712,56 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D317" t="n">
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22773,7 +22771,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22783,56 +22781,58 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N317" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
-        </is>
-      </c>
-      <c r="D318" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
       <c r="E318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -22842,7 +22842,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22852,58 +22852,56 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
       <c r="E319" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -22913,7 +22911,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -22923,56 +22921,58 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N319" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
-        </is>
-      </c>
-      <c r="D320" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr"/>
       <c r="E320" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -22982,7 +22982,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -22992,58 +22992,56 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>6</v>
+      </c>
       <c r="E321" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23053,7 +23051,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23063,56 +23061,56 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E322" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23122,7 +23120,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23132,42 +23130,42 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -23206,51 +23204,51 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E324" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23260,7 +23258,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23270,56 +23268,56 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E325" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23329,7 +23327,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23339,56 +23337,56 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23398,7 +23396,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23408,56 +23406,56 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23467,7 +23465,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -23477,56 +23475,56 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 20% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>6472919</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-herzbiber-3x76g/p/6472919</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E328" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23536,7 +23534,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23546,56 +23544,58 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N328" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g 21% Aktion 4.95 Schweizer Franken statt 6.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>6472919</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-herzbiber-3x76g/p/6472919</t>
-        </is>
-      </c>
-      <c r="D329" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
       <c r="E329" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23605,7 +23605,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23615,58 +23615,56 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g 21% Aktion 4.95 Schweizer Franken statt 6.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N329" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>14</v>
+      </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23676,7 +23674,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23686,91 +23684,22 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-12 12:55:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>4145231</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
-        </is>
-      </c>
-      <c r="D331" t="n">
-        <v>14</v>
-      </c>
-      <c r="E331" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3.28/100g</t>
-        </is>
-      </c>
-      <c r="I331" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
-        </is>
-      </c>
-      <c r="M331" t="inlineStr">
-        <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
-      <c r="O331" t="inlineStr">
-        <is>
-          <t>2023-02-12 12:55:32</t>
+          <t>2023-02-12 20:49:39</t>
         </is>
       </c>
     </row>
